--- a/public/templates/iqvia_settlement_template.xlsx
+++ b/public/templates/iqvia_settlement_template.xlsx
@@ -14,28 +14,18 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">IQVIA!$A$1:$M$13</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn__FilterDatabase" vbProcedure="false">IQVIA!$A$11:$M$24</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">IQVIA!$A$1:$M$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
-    <r>
-      <t xml:space="preserve">IQVIA</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">项目执行订单</t>
-    </r>
+    <t>IQVIA项目执行订单</t>
   </si>
   <si>
     <t>IQVIA</t>
@@ -129,6 +119,9 @@
   <si>
     <t>实际结算折后总额</t>
   </si>
+  <si>
+    <t>备注</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +132,7 @@
     <numFmt numFmtId="165" formatCode="YYYY/M/D;@"/>
     <numFmt numFmtId="166" formatCode="* #,##0.00\ ;* \-#,##0.00\ ;* \-#\ ;@\ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -173,13 +166,6 @@
       <name val="微软雅黑"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -417,7 +403,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,15 +415,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -445,15 +431,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -461,39 +447,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -509,11 +495,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,6 +555,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" s="7" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -3756,7 +3743,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="0"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
       <c r="Q10" s="0"/>
@@ -4808,6 +4795,9 @@
       <c r="M11" s="19" t="s">
         <v>27</v>
       </c>
+      <c r="N11" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="20"/>
@@ -4838,11 +4828,12 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A4:C4"/>
@@ -4862,7 +4853,7 @@
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E10:N10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/public/templates/iqvia_settlement_template.xlsx
+++ b/public/templates/iqvia_settlement_template.xlsx
@@ -16,7 +16,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">IQVIA!$A$1:$M$13</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">IQVIA!$A$1:$M$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -34,7 +36,7 @@
     <t>供应商</t>
   </si>
   <si>
-    <t>海鄞信息咨询（上海）有限公司</t>
+    <t>海鄞</t>
   </si>
   <si>
     <t>项目OPP号：</t>
@@ -532,10 +534,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="1" width="8.79245283018868"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.39150943396226"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.88679245283019"/>
-    <col collapsed="false" hidden="false" max="259" min="8" style="1" width="8.79245283018868"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.127358490566"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.377358490566"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.127358490566"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.377358490566"/>
+    <col collapsed="false" hidden="false" max="14" min="5" style="1" width="8.62735849056604"/>
+    <col collapsed="false" hidden="false" max="259" min="15" style="1" width="8.79245283018868"/>
     <col collapsed="false" hidden="false" max="1025" min="260" style="2" width="8.79245283018868"/>
   </cols>
   <sheetData>
@@ -631,12 +635,12 @@
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="8"/>
@@ -1661,12 +1665,12 @@
         <v>9</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
@@ -2691,12 +2695,12 @@
         <v>11</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="8"/>
@@ -4832,26 +4836,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
+  <mergeCells count="2">
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:N10"/>
   </mergeCells>

--- a/public/templates/iqvia_settlement_template.xlsx
+++ b/public/templates/iqvia_settlement_template.xlsx
@@ -11,21 +11,22 @@
     <sheet name="IQVIA" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn__FilterDatabase" vbProcedure="false">IQVIA!$A$11:$M$24</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">IQVIA!$A$1:$M$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn__FilterDatabase" vbProcedure="false">IQVIA!$A$11:$M$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">IQVIA!$A$1:$M$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">IQVIA!$A$1:$M$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">IQVIA!$A$1:$M$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">IQVIA!$A$1:$M$13</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">IQVIA!$A$1:$M$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>IQVIA项目执行订单</t>
   </si>
@@ -54,6 +55,9 @@
     <t>订单接受负责人：</t>
   </si>
   <si>
+    <t>Hansen</t>
+  </si>
+  <si>
     <t>订单下达负责人邮件地址：</t>
   </si>
   <si>
@@ -69,6 +73,9 @@
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
+  </si>
+  <si>
+    <t>Hansen.fan@hci-consulting.com</t>
   </si>
   <si>
     <t>订单下达负责人电话号码：</t>
@@ -134,7 +141,7 @@
     <numFmt numFmtId="165" formatCode="YYYY/M/D;@"/>
     <numFmt numFmtId="166" formatCode="* #,##0.00\ ;* \-#,##0.00\ ;* \-#\ ;@\ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -187,6 +194,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -388,7 +402,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,11 +451,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,39 +467,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,11 +515,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -638,7 +656,9 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1662,13 +1682,15 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2692,13 +2714,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="11"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3721,33 +3743,33 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>13</v>
+      <c r="A10" s="17" t="s">
+        <v>15</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17" t="s">
-        <v>14</v>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
+        <v>16</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
       <c r="Q10" s="0"/>
@@ -4760,79 +4782,79 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="F11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="G11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="H11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="I11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="J11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="K11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="L11" s="20" t="s">
         <v>28</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
-    <row r="13" s="29" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+    <row r="13" s="30" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -4840,6 +4862,9 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:N10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" display="Hansen.fan@hci-consulting.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
